--- a/src/脆弱性表.xlsx
+++ b/src/脆弱性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh\Desktop\新建文件夹 (2)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9CBDCD-D9B4-4F9E-85DA-87512B7C258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14145DDC-042E-4F81-BAA8-2318F824FF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8210B468-30A7-4224-BB47-9975CE08BE17}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>脆弱性编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>未备份配置文件或存放不当是一个脆弱性</t>
+  </si>
+  <si>
+    <t>安装与维护缺乏管理</t>
+  </si>
+  <si>
+    <t>操作系统补丁未安装</t>
+  </si>
+  <si>
+    <t>操作系统的口令策略没有启用</t>
+  </si>
+  <si>
+    <t>操作系统的帐户锁定策略没有启用</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,6 +182,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,16 +500,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771F6F09-9B0E-4031-A69A-EE0FDF388F69}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -739,6 +754,142 @@
         <v>1011</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1018</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
